--- a/HD_Routing.xlsx
+++ b/HD_Routing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\git\shipping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A43507F-1AE5-4170-9EFA-CF36D22ABA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8594345E-3D19-47C9-B335-F91D12D57737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30540" yWindow="2055" windowWidth="21630" windowHeight="12045" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,12 +952,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BB652F-6840-404A-8438-115D60DCB3DA}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
